--- a/YAML-CREATION/EM/VIRTUAL_TEST/em.xlsx
+++ b/YAML-CREATION/EM/VIRTUAL_TEST/em.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Kyoto-bos-tool\KYOTO-W-\YAML-CREATION\EM\VIRTUAL_TEST\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39BFEF73-41B1-4EEE-9584-775B1611FFBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3296304-50FB-4E77-8C7F-8E126FB3783F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="locations" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4393" uniqueCount="942">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4425" uniqueCount="951">
   <si>
     <t>dbo.section</t>
   </si>
@@ -2859,6 +2859,33 @@
   </si>
   <si>
     <t>s</t>
+  </si>
+  <si>
+    <t>em-01</t>
+  </si>
+  <si>
+    <t>average_line_current_sensor</t>
+  </si>
+  <si>
+    <t>average_line_neutral_voltage_sensor</t>
+  </si>
+  <si>
+    <t>line_frequency_sensor</t>
+  </si>
+  <si>
+    <t>powerfactor_sensor</t>
+  </si>
+  <si>
+    <t>power_sensor</t>
+  </si>
+  <si>
+    <t>electricalgrid_energy_accumulator</t>
+  </si>
+  <si>
+    <t>generator_energy_accumulator</t>
+  </si>
+  <si>
+    <t>energy_accumulator</t>
   </si>
 </sst>
 </file>
@@ -3443,9 +3470,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:V18"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T3" sqref="T3"/>
+      <selection pane="bottomLeft" activeCell="S8" sqref="S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4000,8 +4027,8 @@
       <c r="S10" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="T10" s="6" t="s">
-        <v>940</v>
+      <c r="T10" t="s">
+        <v>942</v>
       </c>
       <c r="V10" s="6" t="s">
         <v>58</v>
@@ -4031,9 +4058,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G841"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A49"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -18363,7 +18390,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -18392,14 +18419,118 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>942</v>
+      </c>
+      <c r="B2" t="s">
+        <v>940</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>942</v>
+      </c>
+      <c r="B3" t="s">
+        <v>940</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>942</v>
+      </c>
+      <c r="B4" t="s">
+        <v>940</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>942</v>
+      </c>
+      <c r="B5" t="s">
+        <v>940</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>942</v>
+      </c>
+      <c r="B6" t="s">
+        <v>940</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>942</v>
+      </c>
+      <c r="B7" t="s">
+        <v>940</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>942</v>
+      </c>
+      <c r="B8" t="s">
+        <v>940</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>942</v>
+      </c>
+      <c r="B9" t="s">
+        <v>940</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>950</v>
+      </c>
+    </row>
     <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
